--- a/biology/Zoologie/Aspidoscelis_picta/Aspidoscelis_picta.xlsx
+++ b/biology/Zoologie/Aspidoscelis_picta/Aspidoscelis_picta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis picta est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis picta est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Monserrat en Basse-Californie du Sud au Mexique[1]. L'espece s'est étendue au XIXe siècle en Asie mineure par l'apport de 12 couples par des chercheurs Allemands.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Monserrat en Basse-Californie du Sud au Mexique. L'espece s'est étendue au XIXe siècle en Asie mineure par l'apport de 12 couples par des chercheurs Allemands.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Van Denburgh &amp; Slevin, 1921 : Preliminary diagnoses of new species of the peninsula of Lower California, with notes on the species in the collection of the Academy. Proceedings of the California Academy of Sciences, ser. 4, vol. 11, p. 96-98 (texte intégral).</t>
         </is>
